--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.5262982610707</v>
+        <v>29.947775</v>
       </c>
       <c r="H2">
-        <v>13.5262982610707</v>
+        <v>89.84332500000001</v>
       </c>
       <c r="I2">
-        <v>0.8655800551730141</v>
+        <v>0.9303126840830549</v>
       </c>
       <c r="J2">
-        <v>0.8655800551730141</v>
+        <v>0.930312684083055</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.35238863289615</v>
+        <v>10.53177933333333</v>
       </c>
       <c r="N2">
-        <v>2.35238863289615</v>
+        <v>31.595338</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7877119251503418</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7877119251503418</v>
       </c>
       <c r="Q2">
-        <v>31.81911027450568</v>
+        <v>315.4033578243167</v>
       </c>
       <c r="R2">
-        <v>31.81911027450568</v>
+        <v>2838.630220418851</v>
       </c>
       <c r="S2">
-        <v>0.8655800551730141</v>
+        <v>0.7328183953708449</v>
       </c>
       <c r="T2">
-        <v>0.8655800551730141</v>
+        <v>0.732818395370845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.924100826037158</v>
+        <v>29.947775</v>
       </c>
       <c r="H3">
-        <v>0.924100826037158</v>
+        <v>89.84332500000001</v>
       </c>
       <c r="I3">
-        <v>0.059135413736127</v>
+        <v>0.9303126840830549</v>
       </c>
       <c r="J3">
-        <v>0.059135413736127</v>
+        <v>0.930312684083055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.35238863289615</v>
+        <v>2.405620333333333</v>
       </c>
       <c r="N3">
-        <v>2.35238863289615</v>
+        <v>7.216861</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1799255153355986</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1799255153355986</v>
       </c>
       <c r="Q3">
-        <v>2.173844278819753</v>
+        <v>72.04297647809167</v>
       </c>
       <c r="R3">
-        <v>2.173844278819753</v>
+        <v>648.386788302825</v>
       </c>
       <c r="S3">
-        <v>0.059135413736127</v>
+        <v>0.1673869891068875</v>
       </c>
       <c r="T3">
-        <v>0.059135413736127</v>
+        <v>0.1673869891068876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,427 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>29.947775</v>
+      </c>
+      <c r="H4">
+        <v>89.84332500000001</v>
+      </c>
+      <c r="I4">
+        <v>0.9303126840830549</v>
+      </c>
+      <c r="J4">
+        <v>0.930312684083055</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.4326903333333333</v>
+      </c>
+      <c r="N4">
+        <v>1.298071</v>
+      </c>
+      <c r="O4">
+        <v>0.03236255951405961</v>
+      </c>
+      <c r="P4">
+        <v>0.03236255951405961</v>
+      </c>
+      <c r="Q4">
+        <v>12.95811274734167</v>
+      </c>
+      <c r="R4">
+        <v>116.623014726075</v>
+      </c>
+      <c r="S4">
+        <v>0.0301072996053224</v>
+      </c>
+      <c r="T4">
+        <v>0.03010729960532241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.17646082057224</v>
-      </c>
-      <c r="H4">
-        <v>1.17646082057224</v>
-      </c>
-      <c r="I4">
-        <v>0.07528453109085897</v>
-      </c>
-      <c r="J4">
-        <v>0.07528453109085897</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.35238863289615</v>
-      </c>
-      <c r="N4">
-        <v>2.35238863289615</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2.767493061361815</v>
-      </c>
-      <c r="R4">
-        <v>2.767493061361815</v>
-      </c>
-      <c r="S4">
-        <v>0.07528453109085897</v>
-      </c>
-      <c r="T4">
-        <v>0.07528453109085897</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9818753333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.945626</v>
+      </c>
+      <c r="I5">
+        <v>0.03050146719708818</v>
+      </c>
+      <c r="J5">
+        <v>0.03050146719708818</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>10.53177933333333</v>
+      </c>
+      <c r="N5">
+        <v>31.595338</v>
+      </c>
+      <c r="O5">
+        <v>0.7877119251503418</v>
+      </c>
+      <c r="P5">
+        <v>0.7877119251503418</v>
+      </c>
+      <c r="Q5">
+        <v>10.34089434350978</v>
+      </c>
+      <c r="R5">
+        <v>93.06804909158799</v>
+      </c>
+      <c r="S5">
+        <v>0.02402636944572833</v>
+      </c>
+      <c r="T5">
+        <v>0.02402636944572833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9818753333333333</v>
+      </c>
+      <c r="H6">
+        <v>2.945626</v>
+      </c>
+      <c r="I6">
+        <v>0.03050146719708818</v>
+      </c>
+      <c r="J6">
+        <v>0.03050146719708818</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.405620333333333</v>
+      </c>
+      <c r="N6">
+        <v>7.216861</v>
+      </c>
+      <c r="O6">
+        <v>0.1799255153355986</v>
+      </c>
+      <c r="P6">
+        <v>0.1799255153355986</v>
+      </c>
+      <c r="Q6">
+        <v>2.362019266665111</v>
+      </c>
+      <c r="R6">
+        <v>21.258173399986</v>
+      </c>
+      <c r="S6">
+        <v>0.005487992203927945</v>
+      </c>
+      <c r="T6">
+        <v>0.005487992203927946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9818753333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.945626</v>
+      </c>
+      <c r="I7">
+        <v>0.03050146719708818</v>
+      </c>
+      <c r="J7">
+        <v>0.03050146719708818</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.4326903333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.298071</v>
+      </c>
+      <c r="O7">
+        <v>0.03236255951405961</v>
+      </c>
+      <c r="P7">
+        <v>0.03236255951405961</v>
+      </c>
+      <c r="Q7">
+        <v>0.4248479652717778</v>
+      </c>
+      <c r="R7">
+        <v>3.823631687446</v>
+      </c>
+      <c r="S7">
+        <v>0.0009871055474319033</v>
+      </c>
+      <c r="T7">
+        <v>0.0009871055474319033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.261435</v>
+      </c>
+      <c r="H8">
+        <v>3.784305</v>
+      </c>
+      <c r="I8">
+        <v>0.03918584871985675</v>
+      </c>
+      <c r="J8">
+        <v>0.03918584871985676</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>10.53177933333333</v>
+      </c>
+      <c r="N8">
+        <v>31.595338</v>
+      </c>
+      <c r="O8">
+        <v>0.7877119251503418</v>
+      </c>
+      <c r="P8">
+        <v>0.7877119251503418</v>
+      </c>
+      <c r="Q8">
+        <v>13.28515506334333</v>
+      </c>
+      <c r="R8">
+        <v>119.56639557009</v>
+      </c>
+      <c r="S8">
+        <v>0.03086716033376842</v>
+      </c>
+      <c r="T8">
+        <v>0.03086716033376843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.261435</v>
+      </c>
+      <c r="H9">
+        <v>3.784305</v>
+      </c>
+      <c r="I9">
+        <v>0.03918584871985675</v>
+      </c>
+      <c r="J9">
+        <v>0.03918584871985676</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.405620333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.216861</v>
+      </c>
+      <c r="O9">
+        <v>0.1799255153355986</v>
+      </c>
+      <c r="P9">
+        <v>0.1799255153355986</v>
+      </c>
+      <c r="Q9">
+        <v>3.034533685178333</v>
+      </c>
+      <c r="R9">
+        <v>27.310803166605</v>
+      </c>
+      <c r="S9">
+        <v>0.007050534024783031</v>
+      </c>
+      <c r="T9">
+        <v>0.007050534024783034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.261435</v>
+      </c>
+      <c r="H10">
+        <v>3.784305</v>
+      </c>
+      <c r="I10">
+        <v>0.03918584871985675</v>
+      </c>
+      <c r="J10">
+        <v>0.03918584871985676</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.4326903333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.298071</v>
+      </c>
+      <c r="O10">
+        <v>0.03236255951405961</v>
+      </c>
+      <c r="P10">
+        <v>0.03236255951405961</v>
+      </c>
+      <c r="Q10">
+        <v>0.5458107306283333</v>
+      </c>
+      <c r="R10">
+        <v>4.912296575655</v>
+      </c>
+      <c r="S10">
+        <v>0.001268154361305301</v>
+      </c>
+      <c r="T10">
+        <v>0.001268154361305301</v>
       </c>
     </row>
   </sheetData>
